--- a/biology/Zoologie/Bembridae/Bembridae.xlsx
+++ b/biology/Zoologie/Bembridae/Bembridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Bembridae regroupe plusieurs genres de poissons téléostéens.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (14 fev. 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (14 fev. 2016) :
 genre Bambradon Jordan et Richardson, 1908
 genre Bembradium Gilbert, 1905
 genre Bembras Cuvier in Cuvier et Valenciennes, 1829
 genre Brachybembras Fowler, 1938
 genre Parabembras Bleeker, 1874 (placé par FishBase sous Parabembridae)
-Selon FishBase                                            (14 fev. 2016)[3] :
+Selon FishBase                                            (14 fev. 2016) :
 genre Bambradon
 Bambradon laevis Nyström, 1887
 genre Bembradium
